--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/Euribor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/Euribor.xlsx
@@ -885,13 +885,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
       <definedName name="qlSerializationPath"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1206,7 +1208,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1286,7 +1288,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1397,14 +1399,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>Euribor.xml</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="52" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>33</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="57"/>
       <c r="H5" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\Euribor.xml</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="21"/>
@@ -1996,13 +1998,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>Euribor365.xml</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="52" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F6:F20,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>15</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\Euribor365.xml</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -2438,13 +2440,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EuriborSwapIsdaFixA.xml</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EuriborSwapIsdaFixA.xml</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -4052,13 +4054,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EuriborSwapIsdaFixB.xml</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EuriborSwapIsdaFixB.xml</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -5666,13 +5668,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EuriborSwapIfrFix.xml</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EuriborSwapIfrFix.xml</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -7268,14 +7270,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>Euribor-Mx.xml</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="52" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>30</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="57"/>
-      <c r="H5" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+      <c r="H5" s="49" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="21"/>
@@ -7878,13 +7880,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EuriborSwap-MxIsdaFixA.xml</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
-      </c>
-      <c r="H6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" s="37" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/Euribor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/Euribor.xlsx
@@ -16,9 +16,6 @@
     <sheet name="Euribor (2)" sheetId="9" r:id="rId7"/>
     <sheet name="EuriborSwapIsdaFixA (2)" sheetId="10" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$5</definedName>
     <definedName name="FamilyName" localSheetId="1">Euribor!$F$3</definedName>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="112">
   <si>
     <t>Trigger</t>
   </si>
@@ -384,6 +381,9 @@
   </si>
   <si>
     <t>YCSTD</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -881,24 +881,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1286,9 +1268,8 @@
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+      <c r="D9" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1406,7 +1387,7 @@
       <c r="G5" s="57"/>
       <c r="H5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\Euribor.xml</v>
+        <v/>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="21"/>
@@ -2004,7 +1985,7 @@
       </c>
       <c r="G5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\Euribor365.xml</v>
+        <v/>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -2446,7 +2427,7 @@
       </c>
       <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EuriborSwapIsdaFixA.xml</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -4060,7 +4041,7 @@
       </c>
       <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EuriborSwapIsdaFixB.xml</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -5674,7 +5655,7 @@
       </c>
       <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EuriborSwapIfrFix.xml</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -7275,9 +7256,9 @@
         <v>#NUM!</v>
       </c>
       <c r="G5" s="57"/>
-      <c r="H5" s="49" t="e">
+      <c r="H5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="21"/>
@@ -7884,9 +7865,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="H6" s="37" t="e">
+      <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/Euribor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/Euribor.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="111">
   <si>
     <t>Trigger</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>YCSTD</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1268,8 +1265,9 @@
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>111</v>
+      <c r="D9" s="23" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1381,13 +1379,13 @@
         <v>Euribor.xml</v>
       </c>
       <c r="F5" s="52" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" s="57"/>
-      <c r="H5" s="49" t="str">
+      <c r="H5" s="49" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="21"/>
@@ -1980,12 +1978,12 @@
         <v>Euribor365.xml</v>
       </c>
       <c r="F5" s="52" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F6:F20,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="49" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F20,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" s="49" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -2422,12 +2420,12 @@
         <v>EuriborSwapIsdaFixA.xml</v>
       </c>
       <c r="G6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -4036,12 +4034,12 @@
         <v>EuriborSwapIsdaFixB.xml</v>
       </c>
       <c r="G6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -5650,12 +5648,12 @@
         <v>EuriborSwapIfrFix.xml</v>
       </c>
       <c r="G6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -7252,13 +7250,13 @@
         <v>Euribor-Mx.xml</v>
       </c>
       <c r="F5" s="52" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" s="57"/>
-      <c r="H5" s="49" t="str">
+      <c r="H5" s="49" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="21"/>
@@ -7862,12 +7860,12 @@
         <v>EuriborSwap-MxIsdaFixA.xml</v>
       </c>
       <c r="G6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/Euribor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/Euribor.xlsx
@@ -1187,7 +1187,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1378,14 +1378,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>Euribor.xml</v>
       </c>
-      <c r="F5" s="52" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+      <c r="F5" s="52">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>33</v>
       </c>
       <c r="G5" s="57"/>
-      <c r="H5" s="49" t="e">
+      <c r="H5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="21"/>
@@ -1401,7 +1401,7 @@
       <c r="E6" s="61"/>
       <c r="F6" s="54" t="str">
         <f>_xll.qlEonia(C6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Eonia2#0001</v>
+        <v>Eonia2#0002</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="49" t="str">
@@ -1427,11 +1427,11 @@
       </c>
       <c r="F7" s="54" t="str">
         <f>_xll.qlEonia(C7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Eonia#0001</v>
+        <v>Eonia#0002</v>
       </c>
       <c r="G7" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E7&amp;"LastFixing_Quote",F7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EoniaLastFixing_Quote#0001</v>
+        <v>EoniaLastFixing_Quote#0002</v>
       </c>
       <c r="H7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1457,11 +1457,11 @@
       </c>
       <c r="F8" s="54" t="str">
         <f>_xll.qlEuribor($E8,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSW#0001</v>
+        <v>EuriborSW#0002</v>
       </c>
       <c r="G8" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E8&amp;"LastFixing_Quote",F8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSWLastFixing_Quote#0001</v>
+        <v>EuriborSWLastFixing_Quote#0002</v>
       </c>
       <c r="H8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1487,11 +1487,11 @@
       </c>
       <c r="F9" s="54" t="str">
         <f>_xll.qlEuribor($E9,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor2W#0001</v>
+        <v>Euribor2W#0002</v>
       </c>
       <c r="G9" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E9&amp;"LastFixing_Quote",F9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor2WLastFixing_Quote#0001</v>
+        <v>Euribor2WLastFixing_Quote#0002</v>
       </c>
       <c r="H9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1517,11 +1517,11 @@
       </c>
       <c r="F10" s="54" t="str">
         <f>_xll.qlEuribor($E10,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3W#0001</v>
+        <v>Euribor3W#0002</v>
       </c>
       <c r="G10" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E10&amp;"LastFixing_Quote",F10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3WLastFixing_Quote#0001</v>
+        <v>Euribor3WLastFixing_Quote#0002</v>
       </c>
       <c r="H10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1547,11 +1547,11 @@
       </c>
       <c r="F11" s="54" t="str">
         <f>_xll.qlEuribor($E11,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor1M#0001</v>
+        <v>Euribor1M#0002</v>
       </c>
       <c r="G11" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E11&amp;"LastFixing_Quote",F11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor1MLastFixing_Quote#0001</v>
+        <v>Euribor1MLastFixing_Quote#0002</v>
       </c>
       <c r="H11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="F12" s="54" t="str">
         <f>_xll.qlEuribor($E12,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor2M#0001</v>
+        <v>Euribor2M#0002</v>
       </c>
       <c r="G12" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E12&amp;"LastFixing_Quote",F12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor2MLastFixing_Quote#0001</v>
+        <v>Euribor2MLastFixing_Quote#0002</v>
       </c>
       <c r="H12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1607,11 +1607,11 @@
       </c>
       <c r="F13" s="54" t="str">
         <f>_xll.qlEuribor($E13,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3M#0001</v>
+        <v>Euribor3M#0002</v>
       </c>
       <c r="G13" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E13&amp;"LastFixing_Quote",F13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3MLastFixing_Quote#0001</v>
+        <v>Euribor3MLastFixing_Quote#0002</v>
       </c>
       <c r="H13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1637,11 +1637,11 @@
       </c>
       <c r="F14" s="54" t="str">
         <f>_xll.qlEuribor($E14,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor4M#0001</v>
+        <v>Euribor4M#0002</v>
       </c>
       <c r="G14" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E14&amp;"LastFixing_Quote",F14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor4MLastFixing_Quote#0001</v>
+        <v>Euribor4MLastFixing_Quote#0002</v>
       </c>
       <c r="H14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="F15" s="54" t="str">
         <f>_xll.qlEuribor($E15,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor5M#0001</v>
+        <v>Euribor5M#0002</v>
       </c>
       <c r="G15" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E15&amp;"LastFixing_Quote",F15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor5MLastFixing_Quote#0001</v>
+        <v>Euribor5MLastFixing_Quote#0002</v>
       </c>
       <c r="H15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1697,11 +1697,11 @@
       </c>
       <c r="F16" s="54" t="str">
         <f>_xll.qlEuribor($E16,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor6M#0001</v>
+        <v>Euribor6M#0002</v>
       </c>
       <c r="G16" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E16&amp;"LastFixing_Quote",F16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor6MLastFixing_Quote#0001</v>
+        <v>Euribor6MLastFixing_Quote#0002</v>
       </c>
       <c r="H16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1727,11 +1727,11 @@
       </c>
       <c r="F17" s="54" t="str">
         <f>_xll.qlEuribor($E17,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor7M#0001</v>
+        <v>Euribor7M#0002</v>
       </c>
       <c r="G17" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E17&amp;"LastFixing_Quote",F17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor7MLastFixing_Quote#0001</v>
+        <v>Euribor7MLastFixing_Quote#0002</v>
       </c>
       <c r="H17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1757,11 +1757,11 @@
       </c>
       <c r="F18" s="54" t="str">
         <f>_xll.qlEuribor($E18,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor8M#0001</v>
+        <v>Euribor8M#0002</v>
       </c>
       <c r="G18" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E18&amp;"LastFixing_Quote",F18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor8MLastFixing_Quote#0001</v>
+        <v>Euribor8MLastFixing_Quote#0002</v>
       </c>
       <c r="H18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1787,11 +1787,11 @@
       </c>
       <c r="F19" s="54" t="str">
         <f>_xll.qlEuribor($E19,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor9M#0001</v>
+        <v>Euribor9M#0002</v>
       </c>
       <c r="G19" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E19&amp;"LastFixing_Quote",F19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor9MLastFixing_Quote#0001</v>
+        <v>Euribor9MLastFixing_Quote#0002</v>
       </c>
       <c r="H19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1817,11 +1817,11 @@
       </c>
       <c r="F20" s="54" t="str">
         <f>_xll.qlEuribor($E20,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor10M#0001</v>
+        <v>Euribor10M#0002</v>
       </c>
       <c r="G20" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E20&amp;"LastFixing_Quote",F20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor10MLastFixing_Quote#0001</v>
+        <v>Euribor10MLastFixing_Quote#0002</v>
       </c>
       <c r="H20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1847,11 +1847,11 @@
       </c>
       <c r="F21" s="54" t="str">
         <f>_xll.qlEuribor($E21,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor11M#0001</v>
+        <v>Euribor11M#0002</v>
       </c>
       <c r="G21" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E21&amp;"LastFixing_Quote",F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor11MLastFixing_Quote#0001</v>
+        <v>Euribor11MLastFixing_Quote#0002</v>
       </c>
       <c r="H21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="F22" s="54" t="str">
         <f>_xll.qlEuribor($E22,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor1Y#0001</v>
+        <v>Euribor1Y#0002</v>
       </c>
       <c r="G22" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E22&amp;"LastFixing_Quote",F22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor1YLastFixing_Quote#0001</v>
+        <v>Euribor1YLastFixing_Quote#0002</v>
       </c>
       <c r="H22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -1977,13 +1977,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>Euribor365.xml</v>
       </c>
-      <c r="F5" s="52" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F20,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" s="49" t="e">
+      <c r="F5" s="52">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F20,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>15</v>
+      </c>
+      <c r="G5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F6" s="54" t="str">
         <f>_xll.qlEuribor365($E6,$C6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor365SW#0001</v>
+        <v>Euribor365SW#0002</v>
       </c>
       <c r="G6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="F7" s="54" t="str">
         <f>_xll.qlEuribor365($E7,$C7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3652W#0001</v>
+        <v>Euribor3652W#0002</v>
       </c>
       <c r="G7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F8" s="54" t="str">
         <f>_xll.qlEuribor365($E8,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3653W#0001</v>
+        <v>Euribor3653W#0002</v>
       </c>
       <c r="G8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="F9" s="54" t="str">
         <f>_xll.qlEuribor365($E9,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3651M#0001</v>
+        <v>Euribor3651M#0002</v>
       </c>
       <c r="G9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="F10" s="54" t="str">
         <f>_xll.qlEuribor365($E10,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3652M#0001</v>
+        <v>Euribor3652M#0002</v>
       </c>
       <c r="G10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F11" s="54" t="str">
         <f>_xll.qlEuribor365($E11,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3653M#0001</v>
+        <v>Euribor3653M#0002</v>
       </c>
       <c r="G11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="F12" s="54" t="str">
         <f>_xll.qlEuribor365($E12,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3654M#0001</v>
+        <v>Euribor3654M#0002</v>
       </c>
       <c r="G12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="F13" s="54" t="str">
         <f>_xll.qlEuribor365($E13,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3655M#0001</v>
+        <v>Euribor3655M#0002</v>
       </c>
       <c r="G13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="F14" s="54" t="str">
         <f>_xll.qlEuribor365($E14,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3656M#0001</v>
+        <v>Euribor3656M#0002</v>
       </c>
       <c r="G14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="F15" s="54" t="str">
         <f>_xll.qlEuribor365($E15,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3657M#0001</v>
+        <v>Euribor3657M#0002</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F16" s="54" t="str">
         <f>_xll.qlEuribor365($E16,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3658M#0001</v>
+        <v>Euribor3658M#0002</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F17" s="54" t="str">
         <f>_xll.qlEuribor365($E17,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3659M#0001</v>
+        <v>Euribor3659M#0002</v>
       </c>
       <c r="G17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F18" s="54" t="str">
         <f>_xll.qlEuribor365($E18,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor36510M#0001</v>
+        <v>Euribor36510M#0002</v>
       </c>
       <c r="G18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="F19" s="54" t="str">
         <f>_xll.qlEuribor365($E19,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor36511M#0001</v>
+        <v>Euribor36511M#0002</v>
       </c>
       <c r="G19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F20" s="54" t="str">
         <f>_xll.qlEuribor365($E20,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor3651Y#0001</v>
+        <v>Euribor3651Y#0002</v>
       </c>
       <c r="G20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -2419,13 +2419,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EuriborSwapIsdaFixA.xml</v>
       </c>
-      <c r="G6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="37" t="e">
+      <c r="G6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f>_xll.qlEuriborSwap($F7,FixingType,$C7,Currency&amp;$D7,Currency&amp;$E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA1Y#0001</v>
+        <v>EuriborSwapIsdaFixA1Y#0002</v>
       </c>
       <c r="H7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f>_xll.qlEuriborSwap($F8,FixingType,$C8,Currency&amp;$D8,Currency&amp;$E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA2Y#0001</v>
+        <v>EuriborSwapIsdaFixA2Y#0002</v>
       </c>
       <c r="H8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f>_xll.qlEuriborSwap($F9,FixingType,$C9,Currency&amp;$D9,Currency&amp;$E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA3Y#0001</v>
+        <v>EuriborSwapIsdaFixA3Y#0002</v>
       </c>
       <c r="H9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f>_xll.qlEuriborSwap($F10,FixingType,$C10,Currency&amp;$D10,Currency&amp;$E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA4Y#0001</v>
+        <v>EuriborSwapIsdaFixA4Y#0002</v>
       </c>
       <c r="H10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f>_xll.qlEuriborSwap($F11,FixingType,$C11,Currency&amp;$D11,Currency&amp;$E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA5Y#0001</v>
+        <v>EuriborSwapIsdaFixA5Y#0002</v>
       </c>
       <c r="H11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f>_xll.qlEuriborSwap($F12,FixingType,$C12,Currency&amp;$D12,Currency&amp;$E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA6Y#0001</v>
+        <v>EuriborSwapIsdaFixA6Y#0002</v>
       </c>
       <c r="H12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f>_xll.qlEuriborSwap($F13,FixingType,$C13,Currency&amp;$D13,Currency&amp;$E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA7Y#0001</v>
+        <v>EuriborSwapIsdaFixA7Y#0002</v>
       </c>
       <c r="H13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f>_xll.qlEuriborSwap($F14,FixingType,$C14,Currency&amp;$D14,Currency&amp;$E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA8Y#0001</v>
+        <v>EuriborSwapIsdaFixA8Y#0002</v>
       </c>
       <c r="H14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f>_xll.qlEuriborSwap($F15,FixingType,$C15,Currency&amp;$D15,Currency&amp;$E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA9Y#0001</v>
+        <v>EuriborSwapIsdaFixA9Y#0002</v>
       </c>
       <c r="H15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f>_xll.qlEuriborSwap($F16,FixingType,$C16,Currency&amp;$D16,Currency&amp;$E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA10Y#0001</v>
+        <v>EuriborSwapIsdaFixA10Y#0002</v>
       </c>
       <c r="H16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f>_xll.qlEuriborSwap($F17,FixingType,$C17,Currency&amp;$D17,Currency&amp;$E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA11Y#0001</v>
+        <v>EuriborSwapIsdaFixA11Y#0002</v>
       </c>
       <c r="H17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f>_xll.qlEuriborSwap($F18,FixingType,$C18,Currency&amp;$D18,Currency&amp;$E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA12Y#0001</v>
+        <v>EuriborSwapIsdaFixA12Y#0002</v>
       </c>
       <c r="H18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f>_xll.qlEuriborSwap($F19,FixingType,$C19,Currency&amp;$D19,Currency&amp;$E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA13Y#0001</v>
+        <v>EuriborSwapIsdaFixA13Y#0002</v>
       </c>
       <c r="H19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f>_xll.qlEuriborSwap($F20,FixingType,$C20,Currency&amp;$D20,Currency&amp;$E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA14Y#0001</v>
+        <v>EuriborSwapIsdaFixA14Y#0002</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f>_xll.qlEuriborSwap($F21,FixingType,$C21,Currency&amp;$D21,Currency&amp;$E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA15Y#0001</v>
+        <v>EuriborSwapIsdaFixA15Y#0002</v>
       </c>
       <c r="H21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G22" s="41" t="str">
         <f>_xll.qlEuriborSwap($F22,FixingType,$C22,Currency&amp;$D22,Currency&amp;$E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA16Y#0001</v>
+        <v>EuriborSwapIsdaFixA16Y#0002</v>
       </c>
       <c r="H22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f>_xll.qlEuriborSwap($F23,FixingType,$C23,Currency&amp;$D23,Currency&amp;$E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA17Y#0001</v>
+        <v>EuriborSwapIsdaFixA17Y#0002</v>
       </c>
       <c r="H23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f>_xll.qlEuriborSwap($F24,FixingType,$C24,Currency&amp;$D24,Currency&amp;$E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA18Y#0001</v>
+        <v>EuriborSwapIsdaFixA18Y#0002</v>
       </c>
       <c r="H24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f>_xll.qlEuriborSwap($F25,FixingType,$C25,Currency&amp;$D25,Currency&amp;$E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA19Y#0001</v>
+        <v>EuriborSwapIsdaFixA19Y#0002</v>
       </c>
       <c r="H25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f>_xll.qlEuriborSwap($F26,FixingType,$C26,Currency&amp;$D26,Currency&amp;$E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA20Y#0001</v>
+        <v>EuriborSwapIsdaFixA20Y#0002</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f>_xll.qlEuriborSwap($F27,FixingType,$C27,Currency&amp;$D27,Currency&amp;$E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA21Y#0001</v>
+        <v>EuriborSwapIsdaFixA21Y#0002</v>
       </c>
       <c r="H27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f>_xll.qlEuriborSwap($F28,FixingType,$C28,Currency&amp;$D28,Currency&amp;$E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA22Y#0001</v>
+        <v>EuriborSwapIsdaFixA22Y#0002</v>
       </c>
       <c r="H28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f>_xll.qlEuriborSwap($F29,FixingType,$C29,Currency&amp;$D29,Currency&amp;$E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA23Y#0001</v>
+        <v>EuriborSwapIsdaFixA23Y#0002</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f>_xll.qlEuriborSwap($F30,FixingType,$C30,Currency&amp;$D30,Currency&amp;$E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA24Y#0001</v>
+        <v>EuriborSwapIsdaFixA24Y#0002</v>
       </c>
       <c r="H30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f>_xll.qlEuriborSwap($F31,FixingType,$C31,Currency&amp;$D31,Currency&amp;$E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA25Y#0001</v>
+        <v>EuriborSwapIsdaFixA25Y#0002</v>
       </c>
       <c r="H31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f>_xll.qlEuriborSwap($F32,FixingType,$C32,Currency&amp;$D32,Currency&amp;$E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA26Y#0001</v>
+        <v>EuriborSwapIsdaFixA26Y#0002</v>
       </c>
       <c r="H32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f>_xll.qlEuriborSwap($F33,FixingType,$C33,Currency&amp;$D33,Currency&amp;$E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA27Y#0001</v>
+        <v>EuriborSwapIsdaFixA27Y#0002</v>
       </c>
       <c r="H33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f>_xll.qlEuriborSwap($F34,FixingType,$C34,Currency&amp;$D34,Currency&amp;$E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA28Y#0001</v>
+        <v>EuriborSwapIsdaFixA28Y#0002</v>
       </c>
       <c r="H34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f>_xll.qlEuriborSwap($F35,FixingType,$C35,Currency&amp;$D35,Currency&amp;$E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA29Y#0001</v>
+        <v>EuriborSwapIsdaFixA29Y#0002</v>
       </c>
       <c r="H35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f>_xll.qlEuriborSwap($F36,FixingType,$C36,Currency&amp;$D36,Currency&amp;$E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA30Y#0001</v>
+        <v>EuriborSwapIsdaFixA30Y#0002</v>
       </c>
       <c r="H36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f>_xll.qlEuriborSwap($F37,FixingType,$C37,Currency&amp;$D37,Currency&amp;$E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA31Y#0001</v>
+        <v>EuriborSwapIsdaFixA31Y#0002</v>
       </c>
       <c r="H37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f>_xll.qlEuriborSwap($F38,FixingType,$C38,Currency&amp;$D38,Currency&amp;$E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA32Y#0001</v>
+        <v>EuriborSwapIsdaFixA32Y#0002</v>
       </c>
       <c r="H38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f>_xll.qlEuriborSwap($F39,FixingType,$C39,Currency&amp;$D39,Currency&amp;$E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA33Y#0001</v>
+        <v>EuriborSwapIsdaFixA33Y#0002</v>
       </c>
       <c r="H39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f>_xll.qlEuriborSwap($F40,FixingType,$C40,Currency&amp;$D40,Currency&amp;$E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA34Y#0001</v>
+        <v>EuriborSwapIsdaFixA34Y#0002</v>
       </c>
       <c r="H40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G41" s="41" t="str">
         <f>_xll.qlEuriborSwap($F41,FixingType,$C41,Currency&amp;$D41,Currency&amp;$E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA35Y#0001</v>
+        <v>EuriborSwapIsdaFixA35Y#0002</v>
       </c>
       <c r="H41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f>_xll.qlEuriborSwap($F42,FixingType,$C42,Currency&amp;$D42,Currency&amp;$E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA36Y#0001</v>
+        <v>EuriborSwapIsdaFixA36Y#0002</v>
       </c>
       <c r="H42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f>_xll.qlEuriborSwap($F43,FixingType,$C43,Currency&amp;$D43,Currency&amp;$E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA37Y#0001</v>
+        <v>EuriborSwapIsdaFixA37Y#0002</v>
       </c>
       <c r="H43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f>_xll.qlEuriborSwap($F44,FixingType,$C44,Currency&amp;$D44,Currency&amp;$E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA38Y#0001</v>
+        <v>EuriborSwapIsdaFixA38Y#0002</v>
       </c>
       <c r="H44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f>_xll.qlEuriborSwap($F45,FixingType,$C45,Currency&amp;$D45,Currency&amp;$E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA39Y#0001</v>
+        <v>EuriborSwapIsdaFixA39Y#0002</v>
       </c>
       <c r="H45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f>_xll.qlEuriborSwap($F46,FixingType,$C46,Currency&amp;$D46,Currency&amp;$E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA40Y#0001</v>
+        <v>EuriborSwapIsdaFixA40Y#0002</v>
       </c>
       <c r="H46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="G47" s="41" t="str">
         <f>_xll.qlEuriborSwap($F47,FixingType,$C47,Currency&amp;$D47,Currency&amp;$E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA41Y#0001</v>
+        <v>EuriborSwapIsdaFixA41Y#0002</v>
       </c>
       <c r="H47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f>_xll.qlEuriborSwap($F48,FixingType,$C48,Currency&amp;$D48,Currency&amp;$E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA42Y#0001</v>
+        <v>EuriborSwapIsdaFixA42Y#0002</v>
       </c>
       <c r="H48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="G49" s="41" t="str">
         <f>_xll.qlEuriborSwap($F49,FixingType,$C49,Currency&amp;$D49,Currency&amp;$E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA43Y#0001</v>
+        <v>EuriborSwapIsdaFixA43Y#0002</v>
       </c>
       <c r="H49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f>_xll.qlEuriborSwap($F50,FixingType,$C50,Currency&amp;$D50,Currency&amp;$E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA44Y#0001</v>
+        <v>EuriborSwapIsdaFixA44Y#0002</v>
       </c>
       <c r="H50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f>_xll.qlEuriborSwap($F51,FixingType,$C51,Currency&amp;$D51,Currency&amp;$E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA45Y#0001</v>
+        <v>EuriborSwapIsdaFixA45Y#0002</v>
       </c>
       <c r="H51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="G52" s="41" t="str">
         <f>_xll.qlEuriborSwap($F52,FixingType,$C52,Currency&amp;$D52,Currency&amp;$E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA46Y#0001</v>
+        <v>EuriborSwapIsdaFixA46Y#0002</v>
       </c>
       <c r="H52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f>_xll.qlEuriborSwap($F53,FixingType,$C53,Currency&amp;$D53,Currency&amp;$E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA47Y#0001</v>
+        <v>EuriborSwapIsdaFixA47Y#0002</v>
       </c>
       <c r="H53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f>_xll.qlEuriborSwap($F54,FixingType,$C54,Currency&amp;$D54,Currency&amp;$E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA48Y#0001</v>
+        <v>EuriborSwapIsdaFixA48Y#0002</v>
       </c>
       <c r="H54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f>_xll.qlEuriborSwap($F55,FixingType,$C55,Currency&amp;$D55,Currency&amp;$E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA49Y#0001</v>
+        <v>EuriborSwapIsdaFixA49Y#0002</v>
       </c>
       <c r="H55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f>_xll.qlEuriborSwap($F56,FixingType,$C56,Currency&amp;$D56,Currency&amp;$E56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA50Y#0001</v>
+        <v>EuriborSwapIsdaFixA50Y#0002</v>
       </c>
       <c r="H56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f>_xll.qlEuriborSwap($F57,FixingType,$C57,Currency&amp;$D57,Currency&amp;$E57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA51Y#0001</v>
+        <v>EuriborSwapIsdaFixA51Y#0002</v>
       </c>
       <c r="H57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f>_xll.qlEuriborSwap($F58,FixingType,$C58,Currency&amp;$D58,Currency&amp;$E58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA52Y#0001</v>
+        <v>EuriborSwapIsdaFixA52Y#0002</v>
       </c>
       <c r="H58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f>_xll.qlEuriborSwap($F59,FixingType,$C59,Currency&amp;$D59,Currency&amp;$E59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA53Y#0001</v>
+        <v>EuriborSwapIsdaFixA53Y#0002</v>
       </c>
       <c r="H59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="G60" s="41" t="str">
         <f>_xll.qlEuriborSwap($F60,FixingType,$C60,Currency&amp;$D60,Currency&amp;$E60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA54Y#0001</v>
+        <v>EuriborSwapIsdaFixA54Y#0002</v>
       </c>
       <c r="H60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f>_xll.qlEuriborSwap($F61,FixingType,$C61,Currency&amp;$D61,Currency&amp;$E61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA55Y#0001</v>
+        <v>EuriborSwapIsdaFixA55Y#0002</v>
       </c>
       <c r="H61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="G62" s="41" t="str">
         <f>_xll.qlEuriborSwap($F62,FixingType,$C62,Currency&amp;$D62,Currency&amp;$E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA56Y#0001</v>
+        <v>EuriborSwapIsdaFixA56Y#0002</v>
       </c>
       <c r="H62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="G63" s="41" t="str">
         <f>_xll.qlEuriborSwap($F63,FixingType,$C63,Currency&amp;$D63,Currency&amp;$E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA57Y#0001</v>
+        <v>EuriborSwapIsdaFixA57Y#0002</v>
       </c>
       <c r="H63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="G64" s="41" t="str">
         <f>_xll.qlEuriborSwap($F64,FixingType,$C64,Currency&amp;$D64,Currency&amp;$E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA58Y#0001</v>
+        <v>EuriborSwapIsdaFixA58Y#0002</v>
       </c>
       <c r="H64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="G65" s="41" t="str">
         <f>_xll.qlEuriborSwap($F65,FixingType,$C65,Currency&amp;$D65,Currency&amp;$E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA59Y#0001</v>
+        <v>EuriborSwapIsdaFixA59Y#0002</v>
       </c>
       <c r="H65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="G66" s="41" t="str">
         <f>_xll.qlEuriborSwap($F66,FixingType,$C66,Currency&amp;$D66,Currency&amp;$E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixA60Y#0001</v>
+        <v>EuriborSwapIsdaFixA60Y#0002</v>
       </c>
       <c r="H66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -4033,13 +4033,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EuriborSwapIsdaFixB.xml</v>
       </c>
-      <c r="G6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="37" t="e">
+      <c r="G6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f>_xll.qlEuriborSwap($F7,FixingType,$C7,Currency&amp;$D7,Currency&amp;$E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB1Y#0001</v>
+        <v>EuriborSwapIsdaFixB1Y#0002</v>
       </c>
       <c r="H7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f>_xll.qlEuriborSwap($F8,FixingType,$C8,Currency&amp;$D8,Currency&amp;$E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB2Y#0001</v>
+        <v>EuriborSwapIsdaFixB2Y#0002</v>
       </c>
       <c r="H8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f>_xll.qlEuriborSwap($F9,FixingType,$C9,Currency&amp;$D9,Currency&amp;$E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB3Y#0001</v>
+        <v>EuriborSwapIsdaFixB3Y#0002</v>
       </c>
       <c r="H9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f>_xll.qlEuriborSwap($F10,FixingType,$C10,Currency&amp;$D10,Currency&amp;$E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB4Y#0001</v>
+        <v>EuriborSwapIsdaFixB4Y#0002</v>
       </c>
       <c r="H10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f>_xll.qlEuriborSwap($F11,FixingType,$C11,Currency&amp;$D11,Currency&amp;$E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB5Y#0001</v>
+        <v>EuriborSwapIsdaFixB5Y#0002</v>
       </c>
       <c r="H11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f>_xll.qlEuriborSwap($F12,FixingType,$C12,Currency&amp;$D12,Currency&amp;$E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB6Y#0001</v>
+        <v>EuriborSwapIsdaFixB6Y#0002</v>
       </c>
       <c r="H12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f>_xll.qlEuriborSwap($F13,FixingType,$C13,Currency&amp;$D13,Currency&amp;$E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB7Y#0001</v>
+        <v>EuriborSwapIsdaFixB7Y#0002</v>
       </c>
       <c r="H13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f>_xll.qlEuriborSwap($F14,FixingType,$C14,Currency&amp;$D14,Currency&amp;$E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB8Y#0001</v>
+        <v>EuriborSwapIsdaFixB8Y#0002</v>
       </c>
       <c r="H14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f>_xll.qlEuriborSwap($F15,FixingType,$C15,Currency&amp;$D15,Currency&amp;$E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB9Y#0001</v>
+        <v>EuriborSwapIsdaFixB9Y#0002</v>
       </c>
       <c r="H15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f>_xll.qlEuriborSwap($F16,FixingType,$C16,Currency&amp;$D16,Currency&amp;$E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB10Y#0001</v>
+        <v>EuriborSwapIsdaFixB10Y#0002</v>
       </c>
       <c r="H16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f>_xll.qlEuriborSwap($F17,FixingType,$C17,Currency&amp;$D17,Currency&amp;$E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB11Y#0001</v>
+        <v>EuriborSwapIsdaFixB11Y#0002</v>
       </c>
       <c r="H17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f>_xll.qlEuriborSwap($F18,FixingType,$C18,Currency&amp;$D18,Currency&amp;$E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB12Y#0001</v>
+        <v>EuriborSwapIsdaFixB12Y#0002</v>
       </c>
       <c r="H18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f>_xll.qlEuriborSwap($F19,FixingType,$C19,Currency&amp;$D19,Currency&amp;$E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB13Y#0001</v>
+        <v>EuriborSwapIsdaFixB13Y#0002</v>
       </c>
       <c r="H19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f>_xll.qlEuriborSwap($F20,FixingType,$C20,Currency&amp;$D20,Currency&amp;$E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB14Y#0001</v>
+        <v>EuriborSwapIsdaFixB14Y#0002</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f>_xll.qlEuriborSwap($F21,FixingType,$C21,Currency&amp;$D21,Currency&amp;$E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB15Y#0001</v>
+        <v>EuriborSwapIsdaFixB15Y#0002</v>
       </c>
       <c r="H21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="G22" s="41" t="str">
         <f>_xll.qlEuriborSwap($F22,FixingType,$C22,Currency&amp;$D22,Currency&amp;$E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB16Y#0001</v>
+        <v>EuriborSwapIsdaFixB16Y#0002</v>
       </c>
       <c r="H22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f>_xll.qlEuriborSwap($F23,FixingType,$C23,Currency&amp;$D23,Currency&amp;$E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB17Y#0001</v>
+        <v>EuriborSwapIsdaFixB17Y#0002</v>
       </c>
       <c r="H23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f>_xll.qlEuriborSwap($F24,FixingType,$C24,Currency&amp;$D24,Currency&amp;$E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB18Y#0001</v>
+        <v>EuriborSwapIsdaFixB18Y#0002</v>
       </c>
       <c r="H24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f>_xll.qlEuriborSwap($F25,FixingType,$C25,Currency&amp;$D25,Currency&amp;$E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB19Y#0001</v>
+        <v>EuriborSwapIsdaFixB19Y#0002</v>
       </c>
       <c r="H25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f>_xll.qlEuriborSwap($F26,FixingType,$C26,Currency&amp;$D26,Currency&amp;$E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB20Y#0001</v>
+        <v>EuriborSwapIsdaFixB20Y#0002</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f>_xll.qlEuriborSwap($F27,FixingType,$C27,Currency&amp;$D27,Currency&amp;$E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB21Y#0001</v>
+        <v>EuriborSwapIsdaFixB21Y#0002</v>
       </c>
       <c r="H27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f>_xll.qlEuriborSwap($F28,FixingType,$C28,Currency&amp;$D28,Currency&amp;$E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB22Y#0001</v>
+        <v>EuriborSwapIsdaFixB22Y#0002</v>
       </c>
       <c r="H28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f>_xll.qlEuriborSwap($F29,FixingType,$C29,Currency&amp;$D29,Currency&amp;$E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB23Y#0001</v>
+        <v>EuriborSwapIsdaFixB23Y#0002</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f>_xll.qlEuriborSwap($F30,FixingType,$C30,Currency&amp;$D30,Currency&amp;$E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB24Y#0001</v>
+        <v>EuriborSwapIsdaFixB24Y#0002</v>
       </c>
       <c r="H30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f>_xll.qlEuriborSwap($F31,FixingType,$C31,Currency&amp;$D31,Currency&amp;$E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB25Y#0001</v>
+        <v>EuriborSwapIsdaFixB25Y#0002</v>
       </c>
       <c r="H31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f>_xll.qlEuriborSwap($F32,FixingType,$C32,Currency&amp;$D32,Currency&amp;$E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB26Y#0001</v>
+        <v>EuriborSwapIsdaFixB26Y#0002</v>
       </c>
       <c r="H32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f>_xll.qlEuriborSwap($F33,FixingType,$C33,Currency&amp;$D33,Currency&amp;$E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB27Y#0001</v>
+        <v>EuriborSwapIsdaFixB27Y#0002</v>
       </c>
       <c r="H33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f>_xll.qlEuriborSwap($F34,FixingType,$C34,Currency&amp;$D34,Currency&amp;$E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB28Y#0001</v>
+        <v>EuriborSwapIsdaFixB28Y#0002</v>
       </c>
       <c r="H34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f>_xll.qlEuriborSwap($F35,FixingType,$C35,Currency&amp;$D35,Currency&amp;$E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB29Y#0001</v>
+        <v>EuriborSwapIsdaFixB29Y#0002</v>
       </c>
       <c r="H35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f>_xll.qlEuriborSwap($F36,FixingType,$C36,Currency&amp;$D36,Currency&amp;$E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB30Y#0001</v>
+        <v>EuriborSwapIsdaFixB30Y#0002</v>
       </c>
       <c r="H36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f>_xll.qlEuriborSwap($F37,FixingType,$C37,Currency&amp;$D37,Currency&amp;$E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB31Y#0001</v>
+        <v>EuriborSwapIsdaFixB31Y#0002</v>
       </c>
       <c r="H37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f>_xll.qlEuriborSwap($F38,FixingType,$C38,Currency&amp;$D38,Currency&amp;$E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB32Y#0001</v>
+        <v>EuriborSwapIsdaFixB32Y#0002</v>
       </c>
       <c r="H38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f>_xll.qlEuriborSwap($F39,FixingType,$C39,Currency&amp;$D39,Currency&amp;$E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB33Y#0001</v>
+        <v>EuriborSwapIsdaFixB33Y#0002</v>
       </c>
       <c r="H39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f>_xll.qlEuriborSwap($F40,FixingType,$C40,Currency&amp;$D40,Currency&amp;$E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB34Y#0001</v>
+        <v>EuriborSwapIsdaFixB34Y#0002</v>
       </c>
       <c r="H40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="G41" s="41" t="str">
         <f>_xll.qlEuriborSwap($F41,FixingType,$C41,Currency&amp;$D41,Currency&amp;$E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB35Y#0001</v>
+        <v>EuriborSwapIsdaFixB35Y#0002</v>
       </c>
       <c r="H41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f>_xll.qlEuriborSwap($F42,FixingType,$C42,Currency&amp;$D42,Currency&amp;$E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB36Y#0001</v>
+        <v>EuriborSwapIsdaFixB36Y#0002</v>
       </c>
       <c r="H42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f>_xll.qlEuriborSwap($F43,FixingType,$C43,Currency&amp;$D43,Currency&amp;$E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB37Y#0001</v>
+        <v>EuriborSwapIsdaFixB37Y#0002</v>
       </c>
       <c r="H43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f>_xll.qlEuriborSwap($F44,FixingType,$C44,Currency&amp;$D44,Currency&amp;$E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB38Y#0001</v>
+        <v>EuriborSwapIsdaFixB38Y#0002</v>
       </c>
       <c r="H44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f>_xll.qlEuriborSwap($F45,FixingType,$C45,Currency&amp;$D45,Currency&amp;$E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB39Y#0001</v>
+        <v>EuriborSwapIsdaFixB39Y#0002</v>
       </c>
       <c r="H45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f>_xll.qlEuriborSwap($F46,FixingType,$C46,Currency&amp;$D46,Currency&amp;$E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB40Y#0001</v>
+        <v>EuriborSwapIsdaFixB40Y#0002</v>
       </c>
       <c r="H46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="G47" s="41" t="str">
         <f>_xll.qlEuriborSwap($F47,FixingType,$C47,Currency&amp;$D47,Currency&amp;$E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB41Y#0001</v>
+        <v>EuriborSwapIsdaFixB41Y#0002</v>
       </c>
       <c r="H47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f>_xll.qlEuriborSwap($F48,FixingType,$C48,Currency&amp;$D48,Currency&amp;$E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB42Y#0001</v>
+        <v>EuriborSwapIsdaFixB42Y#0002</v>
       </c>
       <c r="H48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G49" s="41" t="str">
         <f>_xll.qlEuriborSwap($F49,FixingType,$C49,Currency&amp;$D49,Currency&amp;$E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB43Y#0001</v>
+        <v>EuriborSwapIsdaFixB43Y#0002</v>
       </c>
       <c r="H49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f>_xll.qlEuriborSwap($F50,FixingType,$C50,Currency&amp;$D50,Currency&amp;$E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB44Y#0001</v>
+        <v>EuriborSwapIsdaFixB44Y#0002</v>
       </c>
       <c r="H50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f>_xll.qlEuriborSwap($F51,FixingType,$C51,Currency&amp;$D51,Currency&amp;$E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB45Y#0001</v>
+        <v>EuriborSwapIsdaFixB45Y#0002</v>
       </c>
       <c r="H51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="G52" s="41" t="str">
         <f>_xll.qlEuriborSwap($F52,FixingType,$C52,Currency&amp;$D52,Currency&amp;$E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB46Y#0001</v>
+        <v>EuriborSwapIsdaFixB46Y#0002</v>
       </c>
       <c r="H52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f>_xll.qlEuriborSwap($F53,FixingType,$C53,Currency&amp;$D53,Currency&amp;$E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB47Y#0001</v>
+        <v>EuriborSwapIsdaFixB47Y#0002</v>
       </c>
       <c r="H53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f>_xll.qlEuriborSwap($F54,FixingType,$C54,Currency&amp;$D54,Currency&amp;$E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB48Y#0001</v>
+        <v>EuriborSwapIsdaFixB48Y#0002</v>
       </c>
       <c r="H54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f>_xll.qlEuriborSwap($F55,FixingType,$C55,Currency&amp;$D55,Currency&amp;$E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB49Y#0001</v>
+        <v>EuriborSwapIsdaFixB49Y#0002</v>
       </c>
       <c r="H55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f>_xll.qlEuriborSwap($F56,FixingType,$C56,Currency&amp;$D56,Currency&amp;$E56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB50Y#0001</v>
+        <v>EuriborSwapIsdaFixB50Y#0002</v>
       </c>
       <c r="H56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f>_xll.qlEuriborSwap($F57,FixingType,$C57,Currency&amp;$D57,Currency&amp;$E57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB51Y#0001</v>
+        <v>EuriborSwapIsdaFixB51Y#0002</v>
       </c>
       <c r="H57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f>_xll.qlEuriborSwap($F58,FixingType,$C58,Currency&amp;$D58,Currency&amp;$E58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB52Y#0001</v>
+        <v>EuriborSwapIsdaFixB52Y#0002</v>
       </c>
       <c r="H58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f>_xll.qlEuriborSwap($F59,FixingType,$C59,Currency&amp;$D59,Currency&amp;$E59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB53Y#0001</v>
+        <v>EuriborSwapIsdaFixB53Y#0002</v>
       </c>
       <c r="H59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="G60" s="41" t="str">
         <f>_xll.qlEuriborSwap($F60,FixingType,$C60,Currency&amp;$D60,Currency&amp;$E60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB54Y#0001</v>
+        <v>EuriborSwapIsdaFixB54Y#0002</v>
       </c>
       <c r="H60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f>_xll.qlEuriborSwap($F61,FixingType,$C61,Currency&amp;$D61,Currency&amp;$E61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB55Y#0001</v>
+        <v>EuriborSwapIsdaFixB55Y#0002</v>
       </c>
       <c r="H61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="G62" s="41" t="str">
         <f>_xll.qlEuriborSwap($F62,FixingType,$C62,Currency&amp;$D62,Currency&amp;$E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB56Y#0001</v>
+        <v>EuriborSwapIsdaFixB56Y#0002</v>
       </c>
       <c r="H62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="G63" s="41" t="str">
         <f>_xll.qlEuriborSwap($F63,FixingType,$C63,Currency&amp;$D63,Currency&amp;$E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB57Y#0001</v>
+        <v>EuriborSwapIsdaFixB57Y#0002</v>
       </c>
       <c r="H63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="G64" s="41" t="str">
         <f>_xll.qlEuriborSwap($F64,FixingType,$C64,Currency&amp;$D64,Currency&amp;$E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB58Y#0001</v>
+        <v>EuriborSwapIsdaFixB58Y#0002</v>
       </c>
       <c r="H64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="G65" s="41" t="str">
         <f>_xll.qlEuriborSwap($F65,FixingType,$C65,Currency&amp;$D65,Currency&amp;$E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB59Y#0001</v>
+        <v>EuriborSwapIsdaFixB59Y#0002</v>
       </c>
       <c r="H65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G66" s="41" t="str">
         <f>_xll.qlEuriborSwap($F66,FixingType,$C66,Currency&amp;$D66,Currency&amp;$E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIsdaFixB60Y#0001</v>
+        <v>EuriborSwapIsdaFixB60Y#0002</v>
       </c>
       <c r="H66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -5647,13 +5647,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EuriborSwapIfrFix.xml</v>
       </c>
-      <c r="G6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="37" t="e">
+      <c r="G6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f>_xll.qlEuriborSwap($F7,FixingType,$C7,Currency&amp;$D7,Currency&amp;$E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix1Y#0001</v>
+        <v>EuriborSwapIfrFix1Y#0002</v>
       </c>
       <c r="H7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f>_xll.qlEuriborSwap($F8,FixingType,$C8,Currency&amp;$D8,Currency&amp;$E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix2Y#0001</v>
+        <v>EuriborSwapIfrFix2Y#0002</v>
       </c>
       <c r="H8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f>_xll.qlEuriborSwap($F9,FixingType,$C9,Currency&amp;$D9,Currency&amp;$E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix3Y#0001</v>
+        <v>EuriborSwapIfrFix3Y#0002</v>
       </c>
       <c r="H9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f>_xll.qlEuriborSwap($F10,FixingType,$C10,Currency&amp;$D10,Currency&amp;$E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix4Y#0001</v>
+        <v>EuriborSwapIfrFix4Y#0002</v>
       </c>
       <c r="H10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f>_xll.qlEuriborSwap($F11,FixingType,$C11,Currency&amp;$D11,Currency&amp;$E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix5Y#0001</v>
+        <v>EuriborSwapIfrFix5Y#0002</v>
       </c>
       <c r="H11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f>_xll.qlEuriborSwap($F12,FixingType,$C12,Currency&amp;$D12,Currency&amp;$E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix6Y#0001</v>
+        <v>EuriborSwapIfrFix6Y#0002</v>
       </c>
       <c r="H12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f>_xll.qlEuriborSwap($F13,FixingType,$C13,Currency&amp;$D13,Currency&amp;$E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix7Y#0001</v>
+        <v>EuriborSwapIfrFix7Y#0002</v>
       </c>
       <c r="H13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f>_xll.qlEuriborSwap($F14,FixingType,$C14,Currency&amp;$D14,Currency&amp;$E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix8Y#0001</v>
+        <v>EuriborSwapIfrFix8Y#0002</v>
       </c>
       <c r="H14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f>_xll.qlEuriborSwap($F15,FixingType,$C15,Currency&amp;$D15,Currency&amp;$E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix9Y#0001</v>
+        <v>EuriborSwapIfrFix9Y#0002</v>
       </c>
       <c r="H15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f>_xll.qlEuriborSwap($F16,FixingType,$C16,Currency&amp;$D16,Currency&amp;$E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix10Y#0001</v>
+        <v>EuriborSwapIfrFix10Y#0002</v>
       </c>
       <c r="H16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f>_xll.qlEuriborSwap($F17,FixingType,$C17,Currency&amp;$D17,Currency&amp;$E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix11Y#0001</v>
+        <v>EuriborSwapIfrFix11Y#0002</v>
       </c>
       <c r="H17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f>_xll.qlEuriborSwap($F18,FixingType,$C18,Currency&amp;$D18,Currency&amp;$E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix12Y#0001</v>
+        <v>EuriborSwapIfrFix12Y#0002</v>
       </c>
       <c r="H18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f>_xll.qlEuriborSwap($F19,FixingType,$C19,Currency&amp;$D19,Currency&amp;$E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix13Y#0001</v>
+        <v>EuriborSwapIfrFix13Y#0002</v>
       </c>
       <c r="H19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f>_xll.qlEuriborSwap($F20,FixingType,$C20,Currency&amp;$D20,Currency&amp;$E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix14Y#0001</v>
+        <v>EuriborSwapIfrFix14Y#0002</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f>_xll.qlEuriborSwap($F21,FixingType,$C21,Currency&amp;$D21,Currency&amp;$E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix15Y#0001</v>
+        <v>EuriborSwapIfrFix15Y#0002</v>
       </c>
       <c r="H21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="G22" s="41" t="str">
         <f>_xll.qlEuriborSwap($F22,FixingType,$C22,Currency&amp;$D22,Currency&amp;$E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix16Y#0001</v>
+        <v>EuriborSwapIfrFix16Y#0002</v>
       </c>
       <c r="H22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f>_xll.qlEuriborSwap($F23,FixingType,$C23,Currency&amp;$D23,Currency&amp;$E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix17Y#0001</v>
+        <v>EuriborSwapIfrFix17Y#0002</v>
       </c>
       <c r="H23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f>_xll.qlEuriborSwap($F24,FixingType,$C24,Currency&amp;$D24,Currency&amp;$E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix18Y#0001</v>
+        <v>EuriborSwapIfrFix18Y#0002</v>
       </c>
       <c r="H24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f>_xll.qlEuriborSwap($F25,FixingType,$C25,Currency&amp;$D25,Currency&amp;$E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix19Y#0001</v>
+        <v>EuriborSwapIfrFix19Y#0002</v>
       </c>
       <c r="H25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f>_xll.qlEuriborSwap($F26,FixingType,$C26,Currency&amp;$D26,Currency&amp;$E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix20Y#0001</v>
+        <v>EuriborSwapIfrFix20Y#0002</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f>_xll.qlEuriborSwap($F27,FixingType,$C27,Currency&amp;$D27,Currency&amp;$E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix21Y#0001</v>
+        <v>EuriborSwapIfrFix21Y#0002</v>
       </c>
       <c r="H27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f>_xll.qlEuriborSwap($F28,FixingType,$C28,Currency&amp;$D28,Currency&amp;$E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix22Y#0001</v>
+        <v>EuriborSwapIfrFix22Y#0002</v>
       </c>
       <c r="H28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f>_xll.qlEuriborSwap($F29,FixingType,$C29,Currency&amp;$D29,Currency&amp;$E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix23Y#0001</v>
+        <v>EuriborSwapIfrFix23Y#0002</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f>_xll.qlEuriborSwap($F30,FixingType,$C30,Currency&amp;$D30,Currency&amp;$E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix24Y#0001</v>
+        <v>EuriborSwapIfrFix24Y#0002</v>
       </c>
       <c r="H30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f>_xll.qlEuriborSwap($F31,FixingType,$C31,Currency&amp;$D31,Currency&amp;$E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix25Y#0001</v>
+        <v>EuriborSwapIfrFix25Y#0002</v>
       </c>
       <c r="H31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f>_xll.qlEuriborSwap($F32,FixingType,$C32,Currency&amp;$D32,Currency&amp;$E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix26Y#0001</v>
+        <v>EuriborSwapIfrFix26Y#0002</v>
       </c>
       <c r="H32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f>_xll.qlEuriborSwap($F33,FixingType,$C33,Currency&amp;$D33,Currency&amp;$E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix27Y#0001</v>
+        <v>EuriborSwapIfrFix27Y#0002</v>
       </c>
       <c r="H33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f>_xll.qlEuriborSwap($F34,FixingType,$C34,Currency&amp;$D34,Currency&amp;$E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix28Y#0001</v>
+        <v>EuriborSwapIfrFix28Y#0002</v>
       </c>
       <c r="H34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f>_xll.qlEuriborSwap($F35,FixingType,$C35,Currency&amp;$D35,Currency&amp;$E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix29Y#0001</v>
+        <v>EuriborSwapIfrFix29Y#0002</v>
       </c>
       <c r="H35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f>_xll.qlEuriborSwap($F36,FixingType,$C36,Currency&amp;$D36,Currency&amp;$E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix30Y#0001</v>
+        <v>EuriborSwapIfrFix30Y#0002</v>
       </c>
       <c r="H36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f>_xll.qlEuriborSwap($F37,FixingType,$C37,Currency&amp;$D37,Currency&amp;$E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix31Y#0001</v>
+        <v>EuriborSwapIfrFix31Y#0002</v>
       </c>
       <c r="H37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f>_xll.qlEuriborSwap($F38,FixingType,$C38,Currency&amp;$D38,Currency&amp;$E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix32Y#0001</v>
+        <v>EuriborSwapIfrFix32Y#0002</v>
       </c>
       <c r="H38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f>_xll.qlEuriborSwap($F39,FixingType,$C39,Currency&amp;$D39,Currency&amp;$E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix33Y#0001</v>
+        <v>EuriborSwapIfrFix33Y#0002</v>
       </c>
       <c r="H39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f>_xll.qlEuriborSwap($F40,FixingType,$C40,Currency&amp;$D40,Currency&amp;$E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix34Y#0001</v>
+        <v>EuriborSwapIfrFix34Y#0002</v>
       </c>
       <c r="H40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="G41" s="41" t="str">
         <f>_xll.qlEuriborSwap($F41,FixingType,$C41,Currency&amp;$D41,Currency&amp;$E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix35Y#0001</v>
+        <v>EuriborSwapIfrFix35Y#0002</v>
       </c>
       <c r="H41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f>_xll.qlEuriborSwap($F42,FixingType,$C42,Currency&amp;$D42,Currency&amp;$E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix36Y#0001</v>
+        <v>EuriborSwapIfrFix36Y#0002</v>
       </c>
       <c r="H42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f>_xll.qlEuriborSwap($F43,FixingType,$C43,Currency&amp;$D43,Currency&amp;$E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix37Y#0001</v>
+        <v>EuriborSwapIfrFix37Y#0002</v>
       </c>
       <c r="H43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f>_xll.qlEuriborSwap($F44,FixingType,$C44,Currency&amp;$D44,Currency&amp;$E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix38Y#0001</v>
+        <v>EuriborSwapIfrFix38Y#0002</v>
       </c>
       <c r="H44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f>_xll.qlEuriborSwap($F45,FixingType,$C45,Currency&amp;$D45,Currency&amp;$E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix39Y#0001</v>
+        <v>EuriborSwapIfrFix39Y#0002</v>
       </c>
       <c r="H45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f>_xll.qlEuriborSwap($F46,FixingType,$C46,Currency&amp;$D46,Currency&amp;$E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix40Y#0001</v>
+        <v>EuriborSwapIfrFix40Y#0002</v>
       </c>
       <c r="H46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="G47" s="41" t="str">
         <f>_xll.qlEuriborSwap($F47,FixingType,$C47,Currency&amp;$D47,Currency&amp;$E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix41Y#0001</v>
+        <v>EuriborSwapIfrFix41Y#0002</v>
       </c>
       <c r="H47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f>_xll.qlEuriborSwap($F48,FixingType,$C48,Currency&amp;$D48,Currency&amp;$E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix42Y#0001</v>
+        <v>EuriborSwapIfrFix42Y#0002</v>
       </c>
       <c r="H48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="G49" s="41" t="str">
         <f>_xll.qlEuriborSwap($F49,FixingType,$C49,Currency&amp;$D49,Currency&amp;$E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix43Y#0001</v>
+        <v>EuriborSwapIfrFix43Y#0002</v>
       </c>
       <c r="H49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f>_xll.qlEuriborSwap($F50,FixingType,$C50,Currency&amp;$D50,Currency&amp;$E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix44Y#0001</v>
+        <v>EuriborSwapIfrFix44Y#0002</v>
       </c>
       <c r="H50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f>_xll.qlEuriborSwap($F51,FixingType,$C51,Currency&amp;$D51,Currency&amp;$E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix45Y#0001</v>
+        <v>EuriborSwapIfrFix45Y#0002</v>
       </c>
       <c r="H51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="G52" s="41" t="str">
         <f>_xll.qlEuriborSwap($F52,FixingType,$C52,Currency&amp;$D52,Currency&amp;$E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix46Y#0001</v>
+        <v>EuriborSwapIfrFix46Y#0002</v>
       </c>
       <c r="H52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f>_xll.qlEuriborSwap($F53,FixingType,$C53,Currency&amp;$D53,Currency&amp;$E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix47Y#0001</v>
+        <v>EuriborSwapIfrFix47Y#0002</v>
       </c>
       <c r="H53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f>_xll.qlEuriborSwap($F54,FixingType,$C54,Currency&amp;$D54,Currency&amp;$E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix48Y#0001</v>
+        <v>EuriborSwapIfrFix48Y#0002</v>
       </c>
       <c r="H54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f>_xll.qlEuriborSwap($F55,FixingType,$C55,Currency&amp;$D55,Currency&amp;$E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix49Y#0001</v>
+        <v>EuriborSwapIfrFix49Y#0002</v>
       </c>
       <c r="H55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f>_xll.qlEuriborSwap($F56,FixingType,$C56,Currency&amp;$D56,Currency&amp;$E56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix50Y#0001</v>
+        <v>EuriborSwapIfrFix50Y#0002</v>
       </c>
       <c r="H56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f>_xll.qlEuriborSwap($F57,FixingType,$C57,Currency&amp;$D57,Currency&amp;$E57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix51Y#0001</v>
+        <v>EuriborSwapIfrFix51Y#0002</v>
       </c>
       <c r="H57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f>_xll.qlEuriborSwap($F58,FixingType,$C58,Currency&amp;$D58,Currency&amp;$E58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix52Y#0001</v>
+        <v>EuriborSwapIfrFix52Y#0002</v>
       </c>
       <c r="H58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f>_xll.qlEuriborSwap($F59,FixingType,$C59,Currency&amp;$D59,Currency&amp;$E59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix53Y#0001</v>
+        <v>EuriborSwapIfrFix53Y#0002</v>
       </c>
       <c r="H59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="G60" s="41" t="str">
         <f>_xll.qlEuriborSwap($F60,FixingType,$C60,Currency&amp;$D60,Currency&amp;$E60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix54Y#0001</v>
+        <v>EuriborSwapIfrFix54Y#0002</v>
       </c>
       <c r="H60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f>_xll.qlEuriborSwap($F61,FixingType,$C61,Currency&amp;$D61,Currency&amp;$E61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix55Y#0001</v>
+        <v>EuriborSwapIfrFix55Y#0002</v>
       </c>
       <c r="H61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="G62" s="41" t="str">
         <f>_xll.qlEuriborSwap($F62,FixingType,$C62,Currency&amp;$D62,Currency&amp;$E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix56Y#0001</v>
+        <v>EuriborSwapIfrFix56Y#0002</v>
       </c>
       <c r="H62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="G63" s="41" t="str">
         <f>_xll.qlEuriborSwap($F63,FixingType,$C63,Currency&amp;$D63,Currency&amp;$E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix57Y#0001</v>
+        <v>EuriborSwapIfrFix57Y#0002</v>
       </c>
       <c r="H63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="G64" s="41" t="str">
         <f>_xll.qlEuriborSwap($F64,FixingType,$C64,Currency&amp;$D64,Currency&amp;$E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix58Y#0001</v>
+        <v>EuriborSwapIfrFix58Y#0002</v>
       </c>
       <c r="H64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="G65" s="41" t="str">
         <f>_xll.qlEuriborSwap($F65,FixingType,$C65,Currency&amp;$D65,Currency&amp;$E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix59Y#0001</v>
+        <v>EuriborSwapIfrFix59Y#0002</v>
       </c>
       <c r="H65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="G66" s="41" t="str">
         <f>_xll.qlEuriborSwap($F66,FixingType,$C66,Currency&amp;$D66,Currency&amp;$E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwapIfrFix60Y#0001</v>
+        <v>EuriborSwapIfrFix60Y#0002</v>
       </c>
       <c r="H66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -7249,14 +7249,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>Euribor-Mx.xml</v>
       </c>
-      <c r="F5" s="52" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+      <c r="F5" s="52">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>30</v>
       </c>
       <c r="G5" s="57"/>
-      <c r="H5" s="49" t="e">
+      <c r="H5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="21"/>
@@ -7319,11 +7319,11 @@
       </c>
       <c r="F8" s="54" t="str">
         <f>_xll.qlEuribor($E8,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-MxSW#0001</v>
+        <v>Euribor-MxSW#0002</v>
       </c>
       <c r="G8" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E8&amp;"LastFixing_Quote",F8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-MxSWLastFixing_Quote#0001</v>
+        <v>Euribor-MxSWLastFixing_Quote#0002</v>
       </c>
       <c r="H8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -7349,11 +7349,11 @@
       </c>
       <c r="F9" s="54" t="str">
         <f>_xll.qlEuribor($E9,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx2W#0001</v>
+        <v>Euribor-Mx2W#0002</v>
       </c>
       <c r="G9" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E9&amp;"LastFixing_Quote",F9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx2WLastFixing_Quote#0001</v>
+        <v>Euribor-Mx2WLastFixing_Quote#0002</v>
       </c>
       <c r="H9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -7379,11 +7379,11 @@
       </c>
       <c r="F10" s="54" t="str">
         <f>_xll.qlEuribor($E10,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx3W#0001</v>
+        <v>Euribor-Mx3W#0002</v>
       </c>
       <c r="G10" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E10&amp;"LastFixing_Quote",F10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx3WLastFixing_Quote#0001</v>
+        <v>Euribor-Mx3WLastFixing_Quote#0002</v>
       </c>
       <c r="H10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -7409,11 +7409,11 @@
       </c>
       <c r="F11" s="54" t="str">
         <f>_xll.qlEuribor($E11,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx1M#0001</v>
+        <v>Euribor-Mx1M#0002</v>
       </c>
       <c r="G11" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E11&amp;"LastFixing_Quote",F11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx1MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx1MLastFixing_Quote#0002</v>
       </c>
       <c r="H11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -7439,11 +7439,11 @@
       </c>
       <c r="F12" s="54" t="str">
         <f>_xll.qlEuribor($E12,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx2M#0001</v>
+        <v>Euribor-Mx2M#0002</v>
       </c>
       <c r="G12" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E12&amp;"LastFixing_Quote",F12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx2MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx2MLastFixing_Quote#0002</v>
       </c>
       <c r="H12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -7469,11 +7469,11 @@
       </c>
       <c r="F13" s="54" t="str">
         <f>_xll.qlEuribor($E13,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx3M#0001</v>
+        <v>Euribor-Mx3M#0002</v>
       </c>
       <c r="G13" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E13&amp;"LastFixing_Quote",F13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx3MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx3MLastFixing_Quote#0002</v>
       </c>
       <c r="H13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -7499,11 +7499,11 @@
       </c>
       <c r="F14" s="54" t="str">
         <f>_xll.qlEuribor($E14,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx4M#0001</v>
+        <v>Euribor-Mx4M#0002</v>
       </c>
       <c r="G14" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E14&amp;"LastFixing_Quote",F14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx4MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx4MLastFixing_Quote#0002</v>
       </c>
       <c r="H14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -7529,11 +7529,11 @@
       </c>
       <c r="F15" s="54" t="str">
         <f>_xll.qlEuribor($E15,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx5M#0001</v>
+        <v>Euribor-Mx5M#0002</v>
       </c>
       <c r="G15" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E15&amp;"LastFixing_Quote",F15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx5MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx5MLastFixing_Quote#0002</v>
       </c>
       <c r="H15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -7559,11 +7559,11 @@
       </c>
       <c r="F16" s="54" t="str">
         <f>_xll.qlEuribor($E16,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx6M#0001</v>
+        <v>Euribor-Mx6M#0002</v>
       </c>
       <c r="G16" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E16&amp;"LastFixing_Quote",F16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx6MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx6MLastFixing_Quote#0002</v>
       </c>
       <c r="H16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -7589,11 +7589,11 @@
       </c>
       <c r="F17" s="54" t="str">
         <f>_xll.qlEuribor($E17,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx7M#0001</v>
+        <v>Euribor-Mx7M#0002</v>
       </c>
       <c r="G17" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E17&amp;"LastFixing_Quote",F17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx7MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx7MLastFixing_Quote#0002</v>
       </c>
       <c r="H17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -7619,11 +7619,11 @@
       </c>
       <c r="F18" s="54" t="str">
         <f>_xll.qlEuribor($E18,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx8M#0001</v>
+        <v>Euribor-Mx8M#0002</v>
       </c>
       <c r="G18" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E18&amp;"LastFixing_Quote",F18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx8MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx8MLastFixing_Quote#0002</v>
       </c>
       <c r="H18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -7649,11 +7649,11 @@
       </c>
       <c r="F19" s="54" t="str">
         <f>_xll.qlEuribor($E19,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx9M#0001</v>
+        <v>Euribor-Mx9M#0002</v>
       </c>
       <c r="G19" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E19&amp;"LastFixing_Quote",F19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx9MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx9MLastFixing_Quote#0002</v>
       </c>
       <c r="H19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -7679,11 +7679,11 @@
       </c>
       <c r="F20" s="54" t="str">
         <f>_xll.qlEuribor($E20,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx10M#0001</v>
+        <v>Euribor-Mx10M#0002</v>
       </c>
       <c r="G20" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E20&amp;"LastFixing_Quote",F20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx10MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx10MLastFixing_Quote#0002</v>
       </c>
       <c r="H20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -7709,11 +7709,11 @@
       </c>
       <c r="F21" s="54" t="str">
         <f>_xll.qlEuribor($E21,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx11M#0001</v>
+        <v>Euribor-Mx11M#0002</v>
       </c>
       <c r="G21" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E21&amp;"LastFixing_Quote",F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx11MLastFixing_Quote#0001</v>
+        <v>Euribor-Mx11MLastFixing_Quote#0002</v>
       </c>
       <c r="H21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -7739,11 +7739,11 @@
       </c>
       <c r="F22" s="54" t="str">
         <f>_xll.qlEuribor($E22,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx1Y#0001</v>
+        <v>Euribor-Mx1Y#0002</v>
       </c>
       <c r="G22" s="54" t="str">
         <f>_xll.qlLastFixingQuote(E22&amp;"LastFixing_Quote",F22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Euribor-Mx1YLastFixing_Quote#0001</v>
+        <v>Euribor-Mx1YLastFixing_Quote#0002</v>
       </c>
       <c r="H22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -7859,13 +7859,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EuriborSwap-MxIsdaFixA.xml</v>
       </c>
-      <c r="G6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="37" t="e">
+      <c r="G6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f>_xll.qlEuriborSwap($F7,FixingType,$C7,Currency&amp;$D7,Currency&amp;$E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA1Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA1Y#0002</v>
       </c>
       <c r="H7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f>_xll.qlEuriborSwap($F8,FixingType,$C8,Currency&amp;$D8,Currency&amp;$E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA2Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA2Y#0002</v>
       </c>
       <c r="H8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f>_xll.qlEuriborSwap($F9,FixingType,$C9,Currency&amp;$D9,Currency&amp;$E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA3Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA3Y#0002</v>
       </c>
       <c r="H9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f>_xll.qlEuriborSwap($F10,FixingType,$C10,Currency&amp;$D10,Currency&amp;$E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA4Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA4Y#0002</v>
       </c>
       <c r="H10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f>_xll.qlEuriborSwap($F11,FixingType,$C11,Currency&amp;$D11,Currency&amp;$E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA5Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA5Y#0002</v>
       </c>
       <c r="H11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f>_xll.qlEuriborSwap($F12,FixingType,$C12,Currency&amp;$D12,Currency&amp;$E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA6Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA6Y#0002</v>
       </c>
       <c r="H12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f>_xll.qlEuriborSwap($F13,FixingType,$C13,Currency&amp;$D13,Currency&amp;$E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA7Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA7Y#0002</v>
       </c>
       <c r="H13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f>_xll.qlEuriborSwap($F14,FixingType,$C14,Currency&amp;$D14,Currency&amp;$E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA8Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA8Y#0002</v>
       </c>
       <c r="H14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f>_xll.qlEuriborSwap($F15,FixingType,$C15,Currency&amp;$D15,Currency&amp;$E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA9Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA9Y#0002</v>
       </c>
       <c r="H15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f>_xll.qlEuriborSwap($F16,FixingType,$C16,Currency&amp;$D16,Currency&amp;$E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA10Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA10Y#0002</v>
       </c>
       <c r="H16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f>_xll.qlEuriborSwap($F17,FixingType,$C17,Currency&amp;$D17,Currency&amp;$E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA11Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA11Y#0002</v>
       </c>
       <c r="H17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f>_xll.qlEuriborSwap($F18,FixingType,$C18,Currency&amp;$D18,Currency&amp;$E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA12Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA12Y#0002</v>
       </c>
       <c r="H18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f>_xll.qlEuriborSwap($F19,FixingType,$C19,Currency&amp;$D19,Currency&amp;$E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA13Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA13Y#0002</v>
       </c>
       <c r="H19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f>_xll.qlEuriborSwap($F20,FixingType,$C20,Currency&amp;$D20,Currency&amp;$E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA14Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA14Y#0002</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f>_xll.qlEuriborSwap($F21,FixingType,$C21,Currency&amp;$D21,Currency&amp;$E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA15Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA15Y#0002</v>
       </c>
       <c r="H21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="G22" s="41" t="str">
         <f>_xll.qlEuriborSwap($F22,FixingType,$C22,Currency&amp;$D22,Currency&amp;$E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA16Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA16Y#0002</v>
       </c>
       <c r="H22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f>_xll.qlEuriborSwap($F23,FixingType,$C23,Currency&amp;$D23,Currency&amp;$E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA17Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA17Y#0002</v>
       </c>
       <c r="H23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f>_xll.qlEuriborSwap($F24,FixingType,$C24,Currency&amp;$D24,Currency&amp;$E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA18Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA18Y#0002</v>
       </c>
       <c r="H24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f>_xll.qlEuriborSwap($F25,FixingType,$C25,Currency&amp;$D25,Currency&amp;$E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA19Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA19Y#0002</v>
       </c>
       <c r="H25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f>_xll.qlEuriborSwap($F26,FixingType,$C26,Currency&amp;$D26,Currency&amp;$E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA20Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA20Y#0002</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f>_xll.qlEuriborSwap($F27,FixingType,$C27,Currency&amp;$D27,Currency&amp;$E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA21Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA21Y#0002</v>
       </c>
       <c r="H27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f>_xll.qlEuriborSwap($F28,FixingType,$C28,Currency&amp;$D28,Currency&amp;$E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA22Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA22Y#0002</v>
       </c>
       <c r="H28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f>_xll.qlEuriborSwap($F29,FixingType,$C29,Currency&amp;$D29,Currency&amp;$E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA23Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA23Y#0002</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f>_xll.qlEuriborSwap($F30,FixingType,$C30,Currency&amp;$D30,Currency&amp;$E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA24Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA24Y#0002</v>
       </c>
       <c r="H30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f>_xll.qlEuriborSwap($F31,FixingType,$C31,Currency&amp;$D31,Currency&amp;$E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA25Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA25Y#0002</v>
       </c>
       <c r="H31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f>_xll.qlEuriborSwap($F32,FixingType,$C32,Currency&amp;$D32,Currency&amp;$E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA26Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA26Y#0002</v>
       </c>
       <c r="H32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f>_xll.qlEuriborSwap($F33,FixingType,$C33,Currency&amp;$D33,Currency&amp;$E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA27Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA27Y#0002</v>
       </c>
       <c r="H33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f>_xll.qlEuriborSwap($F34,FixingType,$C34,Currency&amp;$D34,Currency&amp;$E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA28Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA28Y#0002</v>
       </c>
       <c r="H34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f>_xll.qlEuriborSwap($F35,FixingType,$C35,Currency&amp;$D35,Currency&amp;$E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA29Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA29Y#0002</v>
       </c>
       <c r="H35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f>_xll.qlEuriborSwap($F36,FixingType,$C36,Currency&amp;$D36,Currency&amp;$E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA30Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA30Y#0002</v>
       </c>
       <c r="H36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f>_xll.qlEuriborSwap($F37,FixingType,$C37,Currency&amp;$D37,Currency&amp;$E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA31Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA31Y#0002</v>
       </c>
       <c r="H37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f>_xll.qlEuriborSwap($F38,FixingType,$C38,Currency&amp;$D38,Currency&amp;$E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA32Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA32Y#0002</v>
       </c>
       <c r="H38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f>_xll.qlEuriborSwap($F39,FixingType,$C39,Currency&amp;$D39,Currency&amp;$E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA33Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA33Y#0002</v>
       </c>
       <c r="H39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f>_xll.qlEuriborSwap($F40,FixingType,$C40,Currency&amp;$D40,Currency&amp;$E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA34Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA34Y#0002</v>
       </c>
       <c r="H40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="G41" s="41" t="str">
         <f>_xll.qlEuriborSwap($F41,FixingType,$C41,Currency&amp;$D41,Currency&amp;$E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA35Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA35Y#0002</v>
       </c>
       <c r="H41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f>_xll.qlEuriborSwap($F42,FixingType,$C42,Currency&amp;$D42,Currency&amp;$E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA36Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA36Y#0002</v>
       </c>
       <c r="H42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f>_xll.qlEuriborSwap($F43,FixingType,$C43,Currency&amp;$D43,Currency&amp;$E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA37Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA37Y#0002</v>
       </c>
       <c r="H43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f>_xll.qlEuriborSwap($F44,FixingType,$C44,Currency&amp;$D44,Currency&amp;$E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA38Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA38Y#0002</v>
       </c>
       <c r="H44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f>_xll.qlEuriborSwap($F45,FixingType,$C45,Currency&amp;$D45,Currency&amp;$E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA39Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA39Y#0002</v>
       </c>
       <c r="H45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f>_xll.qlEuriborSwap($F46,FixingType,$C46,Currency&amp;$D46,Currency&amp;$E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA40Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA40Y#0002</v>
       </c>
       <c r="H46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="G47" s="41" t="str">
         <f>_xll.qlEuriborSwap($F47,FixingType,$C47,Currency&amp;$D47,Currency&amp;$E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA41Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA41Y#0002</v>
       </c>
       <c r="H47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f>_xll.qlEuriborSwap($F48,FixingType,$C48,Currency&amp;$D48,Currency&amp;$E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA42Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA42Y#0002</v>
       </c>
       <c r="H48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="G49" s="41" t="str">
         <f>_xll.qlEuriborSwap($F49,FixingType,$C49,Currency&amp;$D49,Currency&amp;$E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA43Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA43Y#0002</v>
       </c>
       <c r="H49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f>_xll.qlEuriborSwap($F50,FixingType,$C50,Currency&amp;$D50,Currency&amp;$E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA44Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA44Y#0002</v>
       </c>
       <c r="H50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -8986,7 +8986,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f>_xll.qlEuriborSwap($F51,FixingType,$C51,Currency&amp;$D51,Currency&amp;$E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA45Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA45Y#0002</v>
       </c>
       <c r="H51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="G52" s="41" t="str">
         <f>_xll.qlEuriborSwap($F52,FixingType,$C52,Currency&amp;$D52,Currency&amp;$E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA46Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA46Y#0002</v>
       </c>
       <c r="H52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f>_xll.qlEuriborSwap($F53,FixingType,$C53,Currency&amp;$D53,Currency&amp;$E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA47Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA47Y#0002</v>
       </c>
       <c r="H53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f>_xll.qlEuriborSwap($F54,FixingType,$C54,Currency&amp;$D54,Currency&amp;$E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA48Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA48Y#0002</v>
       </c>
       <c r="H54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f>_xll.qlEuriborSwap($F55,FixingType,$C55,Currency&amp;$D55,Currency&amp;$E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA49Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA49Y#0002</v>
       </c>
       <c r="H55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f>_xll.qlEuriborSwap($F56,FixingType,$C56,Currency&amp;$D56,Currency&amp;$E56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA50Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA50Y#0002</v>
       </c>
       <c r="H56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f>_xll.qlEuriborSwap($F57,FixingType,$C57,Currency&amp;$D57,Currency&amp;$E57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA51Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA51Y#0002</v>
       </c>
       <c r="H57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f>_xll.qlEuriborSwap($F58,FixingType,$C58,Currency&amp;$D58,Currency&amp;$E58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA52Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA52Y#0002</v>
       </c>
       <c r="H58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f>_xll.qlEuriborSwap($F59,FixingType,$C59,Currency&amp;$D59,Currency&amp;$E59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA53Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA53Y#0002</v>
       </c>
       <c r="H59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="G60" s="41" t="str">
         <f>_xll.qlEuriborSwap($F60,FixingType,$C60,Currency&amp;$D60,Currency&amp;$E60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA54Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA54Y#0002</v>
       </c>
       <c r="H60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f>_xll.qlEuriborSwap($F61,FixingType,$C61,Currency&amp;$D61,Currency&amp;$E61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA55Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA55Y#0002</v>
       </c>
       <c r="H61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="G62" s="41" t="str">
         <f>_xll.qlEuriborSwap($F62,FixingType,$C62,Currency&amp;$D62,Currency&amp;$E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA56Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA56Y#0002</v>
       </c>
       <c r="H62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="G63" s="41" t="str">
         <f>_xll.qlEuriborSwap($F63,FixingType,$C63,Currency&amp;$D63,Currency&amp;$E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA57Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA57Y#0002</v>
       </c>
       <c r="H63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="G64" s="41" t="str">
         <f>_xll.qlEuriborSwap($F64,FixingType,$C64,Currency&amp;$D64,Currency&amp;$E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA58Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA58Y#0002</v>
       </c>
       <c r="H64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="G65" s="41" t="str">
         <f>_xll.qlEuriborSwap($F65,FixingType,$C65,Currency&amp;$D65,Currency&amp;$E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA59Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA59Y#0002</v>
       </c>
       <c r="H65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="G66" s="41" t="str">
         <f>_xll.qlEuriborSwap($F66,FixingType,$C66,Currency&amp;$D66,Currency&amp;$E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EuriborSwap-MxIsdaFixA60Y#0001</v>
+        <v>EuriborSwap-MxIsdaFixA60Y#0002</v>
       </c>
       <c r="H66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
